--- a/Optimisation6.xlsx
+++ b/Optimisation6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FB0AFE5E-D711-4038-85E6-9E8FC8A6A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A60A73-D18E-49AA-A6E0-E2F0648B7FA7}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{FB0AFE5E-D711-4038-85E6-9E8FC8A6A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44B220CC-1696-4CD9-8624-FEC1D006C3CE}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
+    <workbookView xWindow="1332" yWindow="1128" windowWidth="17280" windowHeight="8904" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Dist</t>
   </si>
   <si>
     <t>Dist2</t>
@@ -437,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8828E3-2CC5-4ED5-B33A-5674B3893062}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q99" sqref="A52:Q99"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +491,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>8.24</v>
       </c>
@@ -545,13 +539,10 @@
         <v>0.22088564010151299</v>
       </c>
       <c r="P2">
-        <v>0.46403451547545799</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>4.74</v>
       </c>
@@ -598,13 +589,10 @@
         <v>8.9261481138241894E-2</v>
       </c>
       <c r="P3">
-        <v>0.32325372095027199</v>
-      </c>
-      <c r="Q3">
-        <v>0.32355505270441598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.34425200959574498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>8.9600000000000009</v>
       </c>
@@ -651,13 +639,10 @@
         <v>4.0451703352019801E-2</v>
       </c>
       <c r="P4">
-        <v>0.47466559970987399</v>
-      </c>
-      <c r="Q4">
-        <v>0.483877149996847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.52397885908168396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2.91</v>
       </c>
@@ -704,13 +689,10 @@
         <v>0.22792873426017601</v>
       </c>
       <c r="P5">
-        <v>0.49339020045798199</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5.44</v>
       </c>
@@ -757,13 +739,10 @@
         <v>0.28624896150768198</v>
       </c>
       <c r="P6">
-        <v>0.79660669330022404</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1.47</v>
       </c>
@@ -810,13 +789,10 @@
         <v>0.118296727873031</v>
       </c>
       <c r="P7">
-        <v>0.70659043283853196</v>
-      </c>
-      <c r="Q7">
-        <v>0.70818114856237302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.775431725967199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7.27</v>
       </c>
@@ -863,13 +839,10 @@
         <v>0.20912831874499099</v>
       </c>
       <c r="P8">
-        <v>0.12251479138848199</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>3.0564908235091299</v>
       </c>
@@ -916,13 +889,10 @@
         <v>3.4896112033725599E-2</v>
       </c>
       <c r="P9">
-        <v>0.38131823716192198</v>
-      </c>
-      <c r="Q9">
-        <v>0.389931084456278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.41866193355264703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2.0991265753830901</v>
       </c>
@@ -969,13 +939,10 @@
         <v>5.4065174292226001E-2</v>
       </c>
       <c r="P10">
-        <v>0.660904363578244</v>
-      </c>
-      <c r="Q10">
-        <v>0.67002071686203502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.73265250663092096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>4.54058261312281</v>
       </c>
@@ -1022,13 +989,10 @@
         <v>7.1821105897822396E-2</v>
       </c>
       <c r="P11">
-        <v>0.19274102669936799</v>
-      </c>
-      <c r="Q11">
-        <v>0.19328898541213799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.198219053036677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>9.7722926290698293</v>
       </c>
@@ -1075,13 +1039,10 @@
         <v>8.2070035942326106E-2</v>
       </c>
       <c r="P12">
-        <v>0.89986742645383899</v>
-      </c>
-      <c r="Q12">
-        <v>0.90850323055100102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>4.8858683770671103</v>
       </c>
@@ -1128,13 +1089,10 @@
         <v>5.4170717221636799E-2</v>
       </c>
       <c r="P13">
-        <v>0.15810743731091201</v>
-      </c>
-      <c r="Q13">
-        <v>0.15848635466698199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.15920404959494799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>6.8414471977148397</v>
       </c>
@@ -1181,13 +1139,10 @@
         <v>0.26036518900726802</v>
       </c>
       <c r="P14">
-        <v>0.43900534660915003</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1.91427992211107</v>
       </c>
@@ -1234,13 +1189,10 @@
         <v>3.5409340861855099E-2</v>
       </c>
       <c r="P15">
-        <v>7.70996279122656E-2</v>
-      </c>
-      <c r="Q15">
-        <v>7.7344408526306793E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.8241003406618303E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1287,13 +1239,10 @@
         <v>0.153022334983167</v>
       </c>
       <c r="P16">
-        <v>0.357751308724993</v>
-      </c>
-      <c r="Q16">
-        <v>0.35784181805533799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1.321630185789</v>
       </c>
@@ -1340,13 +1289,10 @@
         <v>0.21509926051487399</v>
       </c>
       <c r="P17">
-        <v>0.317595688328417</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1393,13 +1339,10 @@
         <v>0.16711658678278299</v>
       </c>
       <c r="P18">
-        <v>0.199425135664801</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1446,13 +1389,10 @@
         <v>0.13252641564756401</v>
       </c>
       <c r="P19">
-        <v>0.13411347046099001</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1499,13 +1439,10 @@
         <v>0.20652612280771501</v>
       </c>
       <c r="P20">
-        <v>0.29631165052481201</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1.18093941818273</v>
       </c>
@@ -1552,13 +1489,10 @@
         <v>9.42528105879505E-2</v>
       </c>
       <c r="P21">
-        <v>2.4619583303597301E-2</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1605,13 +1539,10 @@
         <v>0.152724818508753</v>
       </c>
       <c r="P22">
-        <v>0.16623803997667699</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1.1854309437588999</v>
       </c>
@@ -1658,13 +1589,10 @@
         <v>1.47185708942959E-2</v>
       </c>
       <c r="P23">
-        <v>4.7823085532939701E-2</v>
-      </c>
-      <c r="Q23">
-        <v>4.8476533590217197E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>3.5879075130731103E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>7.3485985736815698</v>
       </c>
@@ -1711,13 +1639,10 @@
         <v>7.1542454917156204E-2</v>
       </c>
       <c r="P24">
-        <v>0.503439937141963</v>
-      </c>
-      <c r="Q24">
-        <v>0.50689180617845997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.54977911816873004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>1.57293248553862</v>
       </c>
@@ -1764,13 +1689,10 @@
         <v>0.171046555553972</v>
       </c>
       <c r="P25">
-        <v>0.209458124926405</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>5.41193079300026</v>
       </c>
@@ -1817,13 +1739,10 @@
         <v>6.7334917624495394E-2</v>
       </c>
       <c r="P26">
-        <v>0.18995355903890801</v>
-      </c>
-      <c r="Q26">
-        <v>0.18997055919924899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.19449897764740401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>6.3738539247216597</v>
       </c>
@@ -1870,13 +1789,10 @@
         <v>0.13929802409504899</v>
       </c>
       <c r="P27">
-        <v>0.69405717639189601</v>
-      </c>
-      <c r="Q27">
-        <v>0.70547054302503098</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>9.4118381057175693</v>
       </c>
@@ -1923,13 +1839,10 @@
         <v>0.19817212668203399</v>
       </c>
       <c r="P28">
-        <v>0.14982742310494501</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2.7940684945249501</v>
       </c>
@@ -1976,13 +1889,10 @@
         <v>0.19894285018354299</v>
       </c>
       <c r="P29">
-        <v>0.17460185580327001</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1.50481106533973</v>
       </c>
@@ -2029,13 +1939,10 @@
         <v>4.3224437888836398E-2</v>
       </c>
       <c r="P30">
-        <v>0.14613103397829899</v>
-      </c>
-      <c r="Q30">
-        <v>0.14690800570668799</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.146224303096954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>1.0154929226337399</v>
       </c>
@@ -2082,13 +1989,10 @@
         <v>0.19230309050667099</v>
       </c>
       <c r="P31">
-        <v>5.6482452785301202E-2</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2135,13 +2039,10 @@
         <v>0.13593464816199299</v>
       </c>
       <c r="P32">
-        <v>0.427425360378617</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1.04444396810523</v>
       </c>
@@ -2188,13 +2089,10 @@
         <v>3.42248701945847E-2</v>
       </c>
       <c r="P33">
-        <v>9.9381578200804892E-3</v>
-      </c>
-      <c r="Q33">
-        <v>2.0890076047878899E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>4.9536619388208898E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>3.9219472395651001</v>
       </c>
@@ -2241,13 +2139,10 @@
         <v>2.8856867709255E-2</v>
       </c>
       <c r="P34">
-        <v>0.14104453791024699</v>
-      </c>
-      <c r="Q34">
-        <v>0.141841232737553</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.14054426797901201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2294,13 +2189,10 @@
         <v>4.86579806969335E-2</v>
       </c>
       <c r="P35">
-        <v>4.6384971436880897E-2</v>
-      </c>
-      <c r="Q35">
-        <v>4.6684831733883603E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>3.3870512772233699E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2347,13 +2239,10 @@
         <v>6.1522585951768197E-2</v>
       </c>
       <c r="P36">
-        <v>0.34062101693770402</v>
-      </c>
-      <c r="Q36">
-        <v>0.34062101693770402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.363383570602547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>10</v>
       </c>
@@ -2400,13 +2289,10 @@
         <v>0.21036233023839199</v>
       </c>
       <c r="P37">
-        <v>0.37794101592981</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1.6643026794128499</v>
       </c>
@@ -2453,13 +2339,10 @@
         <v>7.08950985053734E-2</v>
       </c>
       <c r="P38">
-        <v>5.7981627462883198E-2</v>
-      </c>
-      <c r="Q38">
-        <v>5.9090618117824803E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>4.7777846445110801E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2506,13 +2389,10 @@
         <v>0.18641661688342401</v>
       </c>
       <c r="P39">
-        <v>0.26014113940481398</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>1.0634913869528599</v>
       </c>
@@ -2559,13 +2439,10 @@
         <v>3.1144848330962899E-2</v>
       </c>
       <c r="P40">
-        <v>0.320200373656225</v>
-      </c>
-      <c r="Q40">
-        <v>0.32726894222809499</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.348415413609929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>2.6382013471342098</v>
       </c>
@@ -2612,13 +2489,10 @@
         <v>4.7382827380172798E-2</v>
       </c>
       <c r="P41">
-        <v>0.16292168501213</v>
-      </c>
-      <c r="Q41">
-        <v>0.163283115054314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.16458139087674001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>1.42194380511526</v>
       </c>
@@ -2665,13 +2539,10 @@
         <v>2.81167907859536E-2</v>
       </c>
       <c r="P42">
-        <v>0.26538361356416601</v>
-      </c>
-      <c r="Q42">
-        <v>0.27457571784502099</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.28934440987704202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1.1675198436266401</v>
       </c>
@@ -2718,13 +2589,10 @@
         <v>2.8547326399968102E-2</v>
       </c>
       <c r="P43">
-        <v>7.2602395717917698E-2</v>
-      </c>
-      <c r="Q43">
-        <v>7.3752712907932103E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.4214583164463698E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2771,13 +2639,10 @@
         <v>0.21890012170825501</v>
       </c>
       <c r="P44">
-        <v>0.35843621525950298</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2824,13 +2689,10 @@
         <v>2.8124342868215801E-2</v>
       </c>
       <c r="P45">
-        <v>0.111066635575295</v>
-      </c>
-      <c r="Q45">
-        <v>0.11127450038853</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.106277859312032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2877,13 +2739,10 @@
         <v>8.5535038691279E-2</v>
       </c>
       <c r="P46">
-        <v>3.35431830944352E-2</v>
-      </c>
-      <c r="Q46">
-        <v>3.3751147577511999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1.9371386669667302E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2930,13 +2789,10 @@
         <v>0.19237522837579901</v>
       </c>
       <c r="P47">
-        <v>0.26226344465851897</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>1.7797005681189499</v>
       </c>
@@ -2983,13 +2839,10 @@
         <v>9.6506635208654198E-2</v>
       </c>
       <c r="P48">
-        <v>9.6697479882474E-2</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1.9311061505292799</v>
       </c>
@@ -3036,13 +2889,10 @@
         <v>1.72035500283335E-2</v>
       </c>
       <c r="P49">
-        <v>9.2388762664946902E-2</v>
-      </c>
-      <c r="Q49">
-        <v>9.2730324472154693E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>8.5489169729934394E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>2.06499606058907</v>
       </c>
@@ -3089,13 +2939,10 @@
         <v>1.6326959518351E-2</v>
       </c>
       <c r="P50">
-        <v>6.9549291371130306E-2</v>
-      </c>
-      <c r="Q50">
-        <v>7.5015490300825702E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.5630202135645604E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3142,9 +2989,6 @@
         <v>0.112179838559807</v>
       </c>
       <c r="P51">
-        <v>0.10965535884446399</v>
-      </c>
-      <c r="Q51">
         <v>1</v>
       </c>
     </row>
